--- a/LED_PD_inv_RED.xlsx
+++ b/LED_PD_inv_RED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43BC299-77A6-4EC3-BF3A-EA9526E2CBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6025C43-5BFD-4B29-9F6E-0C645A5DEFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28EDDABF-9B12-4EC7-B454-DCAC91D45932}"/>
   </bookViews>
@@ -36,45 +36,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
-    <t>Ii_20_5V (mA)</t>
+    <t>Vi_20Ω_0,25V (mV)</t>
   </si>
   <si>
-    <t>Vi_20_5V (mV)</t>
+    <t>I_10KΩ(mV)</t>
   </si>
   <si>
-    <t>Vi_20_0,5V (mV)</t>
+    <t>V_10KΩ(mV)</t>
   </si>
   <si>
-    <t>Ii_20_0,5V (mV)</t>
+    <t>Vi_10KΩ_0,25V (mV)</t>
   </si>
   <si>
-    <t>Vi_20_0,25V (mV)</t>
+    <t>Vi_10KΩ_0,5V (mV)</t>
   </si>
   <si>
-    <t>Vi_10_5V (mV)</t>
+    <t>Ii_10KΩ_5V (mV)</t>
   </si>
   <si>
-    <t>Ii_10_5V (mV)</t>
+    <t>Vi_10KΩ_5V (mV)</t>
   </si>
   <si>
-    <t>Vi_10_0,5V (mV)</t>
+    <t>I_20KΩ(mV)</t>
   </si>
   <si>
-    <t>Vi_10_0,25V (mV)</t>
+    <t>V_20KΩ(mV)</t>
   </si>
   <si>
-    <t>V_20(mV)</t>
+    <t>Vi_20KΩ_0,25V (mV)</t>
   </si>
   <si>
-    <t>I_20 (mV)</t>
+    <t>Ii_20KΩ_0,5V (mV)</t>
   </si>
   <si>
-    <t>V_10 (mV)</t>
+    <t>Vi_20KΩ_0,5V (mV)</t>
   </si>
   <si>
-    <t>I_10 (mV)</t>
+    <t>Vi_20Ω_5V (mV)</t>
+  </si>
+  <si>
+    <t>Ii_20KΩ_5V (mA)</t>
   </si>
 </sst>
 </file>
@@ -428,75 +431,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B76433-61A5-4B17-B4DB-8A1F6D09E98C}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">

--- a/LED_PD_inv_RED.xlsx
+++ b/LED_PD_inv_RED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6025C43-5BFD-4B29-9F6E-0C645A5DEFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6954812D-1819-40EB-8C1E-46C4728A02E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28EDDABF-9B12-4EC7-B454-DCAC91D45932}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
-  <si>
-    <t>Vi_20Ω_0,25V (mV)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>I_10KΩ(mV)</t>
   </si>
@@ -74,10 +71,10 @@
     <t>Vi_20KΩ_0,5V (mV)</t>
   </si>
   <si>
-    <t>Vi_20Ω_5V (mV)</t>
+    <t>Ii_20KΩ_5V (mA)</t>
   </si>
   <si>
-    <t>Ii_20KΩ_5V (mA)</t>
+    <t>Vi_20KΩ_5V (mV)</t>
   </si>
 </sst>
 </file>
@@ -431,18 +428,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B76433-61A5-4B17-B4DB-8A1F6D09E98C}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
@@ -458,49 +454,49 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
         <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">

--- a/LED_PD_inv_RED.xlsx
+++ b/LED_PD_inv_RED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6954812D-1819-40EB-8C1E-46C4728A02E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1C9B31-7E15-454F-9A02-642DD6A3C262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28EDDABF-9B12-4EC7-B454-DCAC91D45932}"/>
   </bookViews>
@@ -38,12 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
-    <t>I_10KΩ(mV)</t>
-  </si>
-  <si>
-    <t>V_10KΩ(mV)</t>
-  </si>
-  <si>
     <t>Vi_10KΩ_0,25V (mV)</t>
   </si>
   <si>
@@ -54,12 +48,6 @@
   </si>
   <si>
     <t>Vi_10KΩ_5V (mV)</t>
-  </si>
-  <si>
-    <t>I_20KΩ(mV)</t>
-  </si>
-  <si>
-    <t>V_20KΩ(mV)</t>
   </si>
   <si>
     <t>Vi_20KΩ_0,25V (mV)</t>
@@ -75,6 +63,18 @@
   </si>
   <si>
     <t>Vi_20KΩ_5V (mV)</t>
+  </si>
+  <si>
+    <t>V_20KΩ (mV)</t>
+  </si>
+  <si>
+    <t>I_20KΩ (mV)</t>
+  </si>
+  <si>
+    <t>V_10KΩ (mV)</t>
+  </si>
+  <si>
+    <t>I_10KΩ (mV)</t>
   </si>
 </sst>
 </file>
@@ -428,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B76433-61A5-4B17-B4DB-8A1F6D09E98C}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,64 +439,64 @@
     <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
